--- a/hieuha.xlsx
+++ b/hieuha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367A7CB0-8AF8-412E-9665-7570114D43D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C456D8-C52F-4D73-81D0-056B886798B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2022" yWindow="2706" windowWidth="17280" windowHeight="8910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57600" yWindow="0" windowWidth="43200" windowHeight="22275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>tên</t>
   </si>
@@ -40,61 +40,28 @@
     <t>7Ac8U9fs4v</t>
   </si>
   <si>
-    <t>Bùi Ngọc Trân</t>
-  </si>
-  <si>
-    <t>hoatranh_nguyen@gmail.com</t>
-  </si>
-  <si>
-    <t>Bùi Xuân Tùng</t>
-  </si>
-  <si>
-    <t>thaichi.duong32@gmail.com</t>
-  </si>
-  <si>
-    <t>Nguyễn Đình Bão</t>
-  </si>
-  <si>
-    <t>duyenmy_hoang94@gmail.com</t>
-  </si>
-  <si>
-    <t>Lê Thị Minh Thùy</t>
-  </si>
-  <si>
-    <t>linhchau.ngo@gmail.com</t>
-  </si>
-  <si>
-    <t>Võ Huỳnh Hải Đăng</t>
-  </si>
-  <si>
-    <t>quynhhoa81@gmail.com</t>
-  </si>
-  <si>
-    <t>Trần Ngọc Kim Thanh</t>
-  </si>
-  <si>
-    <t>lamgiang_phung@gmail.com</t>
-  </si>
-  <si>
-    <t>Võ Như Thảo</t>
-  </si>
-  <si>
-    <t>huemy_dao@gmail.com</t>
-  </si>
-  <si>
-    <t>Phạm Công Thuân</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FF212529"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>anhquoc_tang@gmail.com</t>
-    </r>
+    <t>Trần Danh Nam</t>
+  </si>
+  <si>
+    <t>aohduog83@gmail.com</t>
+  </si>
+  <si>
+    <t>Trịnh Ngọc Bằng</t>
+  </si>
+  <si>
+    <t>huukhoat_lam80@gmail.com</t>
+  </si>
+  <si>
+    <t>Trần Thị Ly</t>
+  </si>
+  <si>
+    <t>duchaoh84@gmail.com</t>
+  </si>
+  <si>
+    <t>Trần Thị Thanh Tình</t>
+  </si>
+  <si>
+    <t>thuhieo_trioh@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -433,7 +400,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I8" activeCellId="1" sqref="A2:E9 I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4"/>
@@ -473,7 +440,7 @@
         <v>12345678</v>
       </c>
       <c r="D2" s="2">
-        <v>84614032109</v>
+        <v>84890059834</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -490,7 +457,7 @@
         <v>12345678</v>
       </c>
       <c r="D3" s="2">
-        <v>84511844089</v>
+        <v>84672450343</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -507,7 +474,7 @@
         <v>12345678</v>
       </c>
       <c r="D4" s="2">
-        <v>84427224842</v>
+        <v>84632134451</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -524,7 +491,7 @@
         <v>12345678</v>
       </c>
       <c r="D5" s="2">
-        <v>84682085206</v>
+        <v>84809905988</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -532,16 +499,16 @@
     </row>
     <row r="6" spans="1:5" ht="22.5">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>12345678</v>
       </c>
       <c r="D6" s="2">
-        <v>84313508906</v>
+        <v>84890059834</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -549,16 +516,16 @@
     </row>
     <row r="7" spans="1:5" ht="22.5">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>12345678</v>
       </c>
       <c r="D7" s="2">
-        <v>84401124609</v>
+        <v>84672450343</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -566,16 +533,16 @@
     </row>
     <row r="8" spans="1:5" ht="22.5">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>12345678</v>
       </c>
       <c r="D8" s="2">
-        <v>84057256887</v>
+        <v>84632134451</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -583,16 +550,16 @@
     </row>
     <row r="9" spans="1:5" ht="22.5">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>12345678</v>
       </c>
       <c r="D9" s="2">
-        <v>84006367157</v>
+        <v>84809905988</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>

--- a/hieuha.xlsx
+++ b/hieuha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C456D8-C52F-4D73-81D0-056B886798B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9E2114-228C-454B-B8E4-4F7B70E0DAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57600" yWindow="0" windowWidth="43200" windowHeight="22275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="65535" yWindow="5685" windowWidth="17280" windowHeight="8910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>tên</t>
   </si>
@@ -40,35 +40,71 @@
     <t>7Ac8U9fs4v</t>
   </si>
   <si>
-    <t>Trần Danh Nam</t>
-  </si>
-  <si>
-    <t>aohduog83@gmail.com</t>
-  </si>
-  <si>
-    <t>Trịnh Ngọc Bằng</t>
-  </si>
-  <si>
-    <t>huukhoat_lam80@gmail.com</t>
-  </si>
-  <si>
-    <t>Trần Thị Ly</t>
-  </si>
-  <si>
-    <t>duchaoh84@gmail.com</t>
-  </si>
-  <si>
-    <t>Trần Thị Thanh Tình</t>
-  </si>
-  <si>
-    <t>thuhieo_trioh@gmail.com</t>
+    <t>Nguyễn Hữu Vương</t>
+  </si>
+  <si>
+    <t>Đặng Văn Hiếu</t>
+  </si>
+  <si>
+    <t>Đào Phú Sang</t>
+  </si>
+  <si>
+    <t>quocmioh.ho41@gmail.com</t>
+  </si>
+  <si>
+    <t>totam70@gmail.com</t>
+  </si>
+  <si>
+    <t>myvao_dioh24@gmail.com</t>
+  </si>
+  <si>
+    <t>Phùng Minh Phông</t>
+  </si>
+  <si>
+    <t>thaohtruog_ogo@gmail.com</t>
+  </si>
+  <si>
+    <t>Dương Phương Thảo</t>
+  </si>
+  <si>
+    <t>troogoghia.taog@gmail.com</t>
+  </si>
+  <si>
+    <t>Hà Duy Quang</t>
+  </si>
+  <si>
+    <t>ogochue_ha@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Lê Nhân</t>
+  </si>
+  <si>
+    <t>vaokhaoh15@gmail.com</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Ánh Tuyết</t>
+  </si>
+  <si>
+    <t>yeotrioh.vu@gmail.com</t>
+  </si>
+  <si>
+    <t>Trần Thảo Uyên</t>
+  </si>
+  <si>
+    <t>ohaosam.ha5@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuyết Thanh</t>
+  </si>
+  <si>
+    <t>miohduyeo_vuoog@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +125,14 @@
       <name val="Verdana"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -107,12 +151,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -122,8 +169,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -397,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" activeCellId="1" sqref="A2:E9 I8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4"/>
@@ -431,16 +482,16 @@
     </row>
     <row r="2" spans="1:5" ht="22.5">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>12345678</v>
       </c>
       <c r="D2" s="2">
-        <v>84890059834</v>
+        <v>84181302796</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -448,16 +499,16 @@
     </row>
     <row r="3" spans="1:5" ht="22.5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>12345678</v>
       </c>
       <c r="D3" s="2">
-        <v>84672450343</v>
+        <v>84621079177</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -465,7 +516,7 @@
     </row>
     <row r="4" spans="1:5" ht="22.5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -474,7 +525,7 @@
         <v>12345678</v>
       </c>
       <c r="D4" s="2">
-        <v>84632134451</v>
+        <v>84779856421</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -484,14 +535,14 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5">
         <v>12345678</v>
       </c>
       <c r="D5" s="2">
-        <v>84809905988</v>
+        <v>84333474644</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -499,16 +550,16 @@
     </row>
     <row r="6" spans="1:5" ht="22.5">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>12345678</v>
       </c>
       <c r="D6" s="2">
-        <v>84890059834</v>
+        <v>84605812720</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -516,16 +567,16 @@
     </row>
     <row r="7" spans="1:5" ht="22.5">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C7">
         <v>12345678</v>
       </c>
       <c r="D7" s="2">
-        <v>84672450343</v>
+        <v>84982878510</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -533,16 +584,16 @@
     </row>
     <row r="8" spans="1:5" ht="22.5">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C8">
         <v>12345678</v>
       </c>
       <c r="D8" s="2">
-        <v>84632134451</v>
+        <v>84640097552</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -550,22 +601,62 @@
     </row>
     <row r="9" spans="1:5" ht="22.5">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>12345678</v>
       </c>
       <c r="D9" s="2">
-        <v>84809905988</v>
+        <v>84990571754</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="10" spans="1:5" ht="22.5">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>12345678</v>
+      </c>
+      <c r="D10" s="2">
+        <v>84035313164</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22.5">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>12345678</v>
+      </c>
+      <c r="D11" s="2">
+        <v>84317426272</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{720E3227-D8C4-40FB-88AA-48C103B498F1}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{0DD464D6-3184-47C1-87F6-B9993DBFFA47}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{4C41ADDD-6F07-450C-86AD-3AAAA5052D91}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{353B8949-6B1C-480A-9DFE-8F8ACA96244B}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/hieuha.xlsx
+++ b/hieuha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9E2114-228C-454B-B8E4-4F7B70E0DAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E85BBCD-2657-4190-87E9-51D5F101E642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="65535" yWindow="5685" windowWidth="17280" windowHeight="8910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="63300" yWindow="5145" windowWidth="17280" windowHeight="8910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>tên</t>
   </si>
@@ -40,71 +40,86 @@
     <t>7Ac8U9fs4v</t>
   </si>
   <si>
-    <t>Nguyễn Hữu Vương</t>
-  </si>
-  <si>
-    <t>Đặng Văn Hiếu</t>
-  </si>
-  <si>
-    <t>Đào Phú Sang</t>
-  </si>
-  <si>
-    <t>quocmioh.ho41@gmail.com</t>
-  </si>
-  <si>
-    <t>totam70@gmail.com</t>
-  </si>
-  <si>
-    <t>myvao_dioh24@gmail.com</t>
-  </si>
-  <si>
-    <t>Phùng Minh Phông</t>
-  </si>
-  <si>
-    <t>thaohtruog_ogo@gmail.com</t>
-  </si>
-  <si>
-    <t>Dương Phương Thảo</t>
-  </si>
-  <si>
-    <t>troogoghia.taog@gmail.com</t>
-  </si>
-  <si>
-    <t>Hà Duy Quang</t>
-  </si>
-  <si>
-    <t>ogochue_ha@gmail.com</t>
-  </si>
-  <si>
-    <t>Nguyễn Lê Nhân</t>
-  </si>
-  <si>
-    <t>vaokhaoh15@gmail.com</t>
-  </si>
-  <si>
-    <t>Huỳnh Thị Ánh Tuyết</t>
-  </si>
-  <si>
-    <t>yeotrioh.vu@gmail.com</t>
-  </si>
-  <si>
-    <t>Trần Thảo Uyên</t>
-  </si>
-  <si>
-    <t>ohaosam.ha5@gmail.com</t>
-  </si>
-  <si>
-    <t>Nguyễn Tuyết Thanh</t>
-  </si>
-  <si>
-    <t>miohduyeo_vuoog@gmail.com</t>
+    <t>Hoàng Thanh Thắm</t>
+  </si>
+  <si>
+    <t>ogocao14@gmail.com</t>
+  </si>
+  <si>
+    <t>Phạm Đức Long</t>
+  </si>
+  <si>
+    <t>hoaovi1@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Kha</t>
+  </si>
+  <si>
+    <t>tuaotu_bui7@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Phạm Nhật Trường</t>
+  </si>
+  <si>
+    <t>ogochuyeo_duoog10@gmail.com</t>
+  </si>
+  <si>
+    <t>Hoàng Mạnh Khoa</t>
+  </si>
+  <si>
+    <t>tuoogaoh_trao@gmail.com</t>
+  </si>
+  <si>
+    <t>Triệu Thị Nhung</t>
+  </si>
+  <si>
+    <t>duytam50@gmail.com</t>
+  </si>
+  <si>
+    <t>Phan Chế Thành Nghị</t>
+  </si>
+  <si>
+    <t>xuaohaoh74@gmail.com</t>
+  </si>
+  <si>
+    <t>Lâm Tạ Tiểu Phụng</t>
+  </si>
+  <si>
+    <t>hoaigiaog.dao9@gmail.com</t>
+  </si>
+  <si>
+    <t>Trần Minh Khoái</t>
+  </si>
+  <si>
+    <t>daothu73@gmail.com</t>
+  </si>
+  <si>
+    <t>Bùi Thị Bích Hiền</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF212529"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>vietquyet_lam@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>Đinh Đức Tuấn</t>
+  </si>
+  <si>
+    <t>huylioh.truoog@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,14 +140,6 @@
       <name val="Verdana"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -151,15 +158,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -169,12 +173,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4"/>
@@ -482,16 +482,16 @@
     </row>
     <row r="2" spans="1:5" ht="22.5">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>12345678</v>
       </c>
       <c r="D2" s="2">
-        <v>84181302796</v>
+        <v>84714762947</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -499,16 +499,16 @@
     </row>
     <row r="3" spans="1:5" ht="22.5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>12345678</v>
       </c>
       <c r="D3" s="2">
-        <v>84621079177</v>
+        <v>84286818134</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="4" spans="1:5" ht="22.5">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -525,7 +525,7 @@
         <v>12345678</v>
       </c>
       <c r="D4" s="2">
-        <v>84779856421</v>
+        <v>84625471502</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -535,14 +535,14 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C5">
         <v>12345678</v>
       </c>
       <c r="D5" s="2">
-        <v>84333474644</v>
+        <v>84930422224</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -559,7 +559,7 @@
         <v>12345678</v>
       </c>
       <c r="D6" s="2">
-        <v>84605812720</v>
+        <v>84775989061</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -569,14 +569,14 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C7">
         <v>12345678</v>
       </c>
       <c r="D7" s="2">
-        <v>84982878510</v>
+        <v>84277714875</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -586,14 +586,14 @@
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C8">
         <v>12345678</v>
       </c>
       <c r="D8" s="2">
-        <v>84640097552</v>
+        <v>84744896018</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -610,7 +610,7 @@
         <v>12345678</v>
       </c>
       <c r="D9" s="2">
-        <v>84990571754</v>
+        <v>84863452369</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -620,14 +620,14 @@
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C10">
         <v>12345678</v>
       </c>
       <c r="D10" s="2">
-        <v>84035313164</v>
+        <v>84112884272</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -644,19 +644,30 @@
         <v>12345678</v>
       </c>
       <c r="D11" s="2">
-        <v>84317426272</v>
+        <v>84802381992</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="12" spans="1:5" ht="22.5">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>12345678</v>
+      </c>
+      <c r="D12" s="2">
+        <v>84514950196</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{720E3227-D8C4-40FB-88AA-48C103B498F1}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{0DD464D6-3184-47C1-87F6-B9993DBFFA47}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{4C41ADDD-6F07-450C-86AD-3AAAA5052D91}"/>
-    <hyperlink ref="B10" r:id="rId4" xr:uid="{353B8949-6B1C-480A-9DFE-8F8ACA96244B}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>